--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200229.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200229.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A30249-31CF-49E4-8033-82FE7D1D90BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3B169-9F76-4791-BB43-CB3CFA6F339E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3990" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -144,12 +144,6 @@
   </si>
   <si>
     <t>城市级</t>
-  </si>
-  <si>
-    <t>2020/2/29 00:00</t>
-  </si>
-  <si>
-    <t>2020/2/30 00:00</t>
   </si>
   <si>
     <t>中国</t>
@@ -257,7 +251,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +268,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,8 +296,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -599,13 +605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -727,24 +737,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
       </c>
       <c r="I2">
         <v>565</v>
@@ -765,60 +775,60 @@
         <v>2195</v>
       </c>
       <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
       <c r="Z2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>168</v>
@@ -836,60 +846,60 @@
         <v>118</v>
       </c>
       <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
         <v>46</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
-      </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -907,60 +917,60 @@
         <v>115</v>
       </c>
       <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
         <v>46</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
       <c r="Z4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>38</v>
@@ -975,60 +985,60 @@
         <v>40</v>
       </c>
       <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
         <v>46</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>47</v>
       </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" t="s">
-        <v>49</v>
-      </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>69</v>
@@ -1043,60 +1053,60 @@
         <v>46</v>
       </c>
       <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
         <v>46</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>47</v>
       </c>
-      <c r="U6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" t="s">
-        <v>49</v>
-      </c>
       <c r="Z6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>48</v>
@@ -1114,60 +1124,60 @@
         <v>34</v>
       </c>
       <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
         <v>46</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="U7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" t="s">
-        <v>49</v>
-      </c>
       <c r="Z7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" t="s">
         <v>52</v>
       </c>
-      <c r="AC7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1185,60 +1195,60 @@
         <v>34</v>
       </c>
       <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
         <v>46</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>47</v>
       </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" t="s">
-        <v>49</v>
-      </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="s">
         <v>52</v>
       </c>
-      <c r="AC8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>44</v>
@@ -1253,60 +1263,60 @@
         <v>31</v>
       </c>
       <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
         <v>46</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>47</v>
       </c>
-      <c r="U9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" t="s">
-        <v>49</v>
-      </c>
       <c r="Z9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC9" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" t="s">
         <v>52</v>
       </c>
-      <c r="AC9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1324,60 +1334,60 @@
         <v>37</v>
       </c>
       <c r="S10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" t="s">
         <v>46</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>47</v>
       </c>
-      <c r="U10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" t="s">
-        <v>49</v>
-      </c>
       <c r="Z10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1398,60 +1408,60 @@
         <v>47</v>
       </c>
       <c r="S11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" t="s">
         <v>46</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>47</v>
       </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" t="s">
-        <v>49</v>
-      </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="s">
         <v>51</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12">
         <v>15</v>
@@ -1469,60 +1479,60 @@
         <v>12</v>
       </c>
       <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" t="s">
         <v>46</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>47</v>
       </c>
-      <c r="U12" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" t="s">
-        <v>49</v>
-      </c>
       <c r="Z12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="s">
         <v>52</v>
       </c>
-      <c r="AC12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1540,60 +1550,60 @@
         <v>7</v>
       </c>
       <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
         <v>46</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>47</v>
       </c>
-      <c r="U13" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" t="s">
-        <v>49</v>
-      </c>
       <c r="Z13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="s">
         <v>51</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="s">
         <v>52</v>
       </c>
-      <c r="AC13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14">
         <v>30</v>
@@ -1608,60 +1618,60 @@
         <v>19</v>
       </c>
       <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
         <v>46</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>47</v>
       </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" t="s">
-        <v>49</v>
-      </c>
       <c r="Z14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="s">
         <v>52</v>
       </c>
-      <c r="AC14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1676,60 +1686,60 @@
         <v>13</v>
       </c>
       <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
         <v>46</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>47</v>
       </c>
-      <c r="U15" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" t="s">
-        <v>49</v>
-      </c>
       <c r="Z15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" t="s">
         <v>52</v>
       </c>
-      <c r="AC15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -1744,60 +1754,60 @@
         <v>4</v>
       </c>
       <c r="S16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" t="s">
         <v>46</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>47</v>
       </c>
-      <c r="U16" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" t="s">
-        <v>49</v>
-      </c>
       <c r="Z16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" t="s">
         <v>51</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K17">
         <v>12</v>
@@ -1812,60 +1822,60 @@
         <v>9</v>
       </c>
       <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>47</v>
       </c>
-      <c r="U17" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" t="s">
-        <v>49</v>
-      </c>
       <c r="Z17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" t="s">
         <v>51</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG17" t="s">
         <v>52</v>
       </c>
-      <c r="AC17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1877,169 +1887,169 @@
         <v>11</v>
       </c>
       <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" t="s">
         <v>46</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>47</v>
       </c>
-      <c r="U18" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" t="s">
-        <v>49</v>
-      </c>
       <c r="Z18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC18" t="s">
         <v>51</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG18" t="s">
         <v>52</v>
       </c>
-      <c r="AC18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" t="s">
         <v>46</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>47</v>
       </c>
-      <c r="U19" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19" t="s">
-        <v>49</v>
-      </c>
       <c r="Z19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" t="s">
         <v>51</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" t="s">
         <v>52</v>
       </c>
-      <c r="AC19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" t="s">
         <v>46</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>47</v>
       </c>
-      <c r="U20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" t="s">
-        <v>49</v>
-      </c>
       <c r="Z20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" t="s">
         <v>51</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG20" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
       </c>
       <c r="I21">
         <v>570</v>
@@ -2069,40 +2079,40 @@
         <v>-1132</v>
       </c>
       <c r="S21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>47</v>
       </c>
-      <c r="U21" t="s">
-        <v>48</v>
-      </c>
-      <c r="V21" t="s">
-        <v>49</v>
-      </c>
       <c r="Z21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" t="s">
         <v>51</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="s">
         <v>52</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +2128,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
